--- a/LBJ_poff.xlsx
+++ b/LBJ_poff.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Decade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Data_analysis\NBA_player_Decde\Data_nab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D2388-B7FE-4749-B87E-FA5CED63B769}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2952133C-1E43-4A21-A30E-D060EC200726}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +36,6 @@
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>2006 Playoffs</t>
   </si>
   <si>
     <t>Series</t>
@@ -383,12 +379,15 @@
   <si>
     <t>L (-23)</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,16 +742,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C0BFAC-0BD0-4A7E-A99E-16B8BFB3EE3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,88 +759,88 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -852,19 +851,19 @@
         <v>38829</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -933,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -944,19 +943,19 @@
         <v>38832</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1025,7 +1024,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1036,22 +1035,22 @@
         <v>38835</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1120,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1131,22 +1130,22 @@
         <v>38837</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1215,7 +1214,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1226,19 +1225,19 @@
         <v>38840</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1307,7 +1306,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1318,22 +1317,22 @@
         <v>38842</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1402,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1413,22 +1412,22 @@
         <v>38844</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1497,7 +1496,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1508,22 +1507,22 @@
         <v>38846</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1592,7 +1591,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1603,19 +1602,19 @@
         <v>38850</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1684,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1695,19 +1694,19 @@
         <v>38852</v>
       </c>
       <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
       <c r="H11">
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1776,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1787,22 +1786,22 @@
         <v>38854</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1871,7 +1870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1882,19 +1881,19 @@
         <v>38856</v>
       </c>
       <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
       <c r="H13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1963,7 +1962,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1974,22 +1973,22 @@
         <v>38858</v>
       </c>
       <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
       </c>
       <c r="H14">
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2058,7 +2057,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2069,19 +2068,19 @@
         <v>39194</v>
       </c>
       <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2150,7 +2149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2161,19 +2160,19 @@
         <v>39197</v>
       </c>
       <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2242,7 +2241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2253,22 +2252,22 @@
         <v>39200</v>
       </c>
       <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2337,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2348,22 +2347,22 @@
         <v>39202</v>
       </c>
       <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2432,7 +2431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2443,19 +2442,19 @@
         <v>39208</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>48</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>49</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2524,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2535,19 +2534,19 @@
         <v>39210</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2616,7 +2615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2627,22 +2626,22 @@
         <v>39214</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2711,7 +2710,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2722,22 +2721,22 @@
         <v>39216</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2806,7 +2805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2817,19 +2816,19 @@
         <v>39218</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2898,7 +2897,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2909,22 +2908,22 @@
         <v>39220</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24">
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2993,7 +2992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3004,22 +3003,22 @@
         <v>39223</v>
       </c>
       <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>54</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3082,7 +3081,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3093,22 +3092,22 @@
         <v>39226</v>
       </c>
       <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
         <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>54</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3177,7 +3176,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3188,19 +3187,19 @@
         <v>39229</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3269,7 +3268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3280,19 +3279,19 @@
         <v>39231</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -3361,7 +3360,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3372,22 +3371,22 @@
         <v>39233</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -3456,7 +3455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3467,19 +3466,19 @@
         <v>39235</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -3548,7 +3547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3559,22 +3558,22 @@
         <v>39240</v>
       </c>
       <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
         <v>55</v>
       </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
         <v>56</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>57</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3643,7 +3642,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3654,22 +3653,22 @@
         <v>39243</v>
       </c>
       <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
         <v>55</v>
       </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>56</v>
-      </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3738,7 +3737,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3749,19 +3748,19 @@
         <v>39245</v>
       </c>
       <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>56</v>
-      </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -3830,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3841,19 +3840,19 @@
         <v>39247</v>
       </c>
       <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
         <v>55</v>
       </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -3922,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3933,19 +3932,19 @@
         <v>39557</v>
       </c>
       <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>30</v>
       </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4014,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4025,19 +4024,19 @@
         <v>39559</v>
       </c>
       <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
         <v>29</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4106,7 +4105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4117,22 +4116,22 @@
         <v>39562</v>
       </c>
       <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
         <v>29</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4201,7 +4200,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4212,22 +4211,22 @@
         <v>39565</v>
       </c>
       <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
         <v>29</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
         <v>30</v>
       </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
       <c r="H38">
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4296,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4307,19 +4306,19 @@
         <v>39568</v>
       </c>
       <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>30</v>
       </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
       <c r="H39">
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -4388,7 +4387,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4399,22 +4398,22 @@
         <v>39570</v>
       </c>
       <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
         <v>29</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
       <c r="H40">
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -4483,7 +4482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4494,22 +4493,22 @@
         <v>39574</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
         <v>63</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>64</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4578,7 +4577,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4589,22 +4588,22 @@
         <v>39576</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4673,7 +4672,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4684,19 +4683,19 @@
         <v>39578</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -4765,7 +4764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4776,19 +4775,19 @@
         <v>39580</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -4857,7 +4856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4868,22 +4867,22 @@
         <v>39582</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -4952,7 +4951,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4963,19 +4962,19 @@
         <v>39584</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -5044,7 +5043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5055,22 +5054,22 @@
         <v>39586</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47">
         <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -5139,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5150,19 +5149,19 @@
         <v>39921</v>
       </c>
       <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
         <v>29</v>
       </c>
-      <c r="E48" t="s">
-        <v>30</v>
-      </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -5231,7 +5230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5242,19 +5241,19 @@
         <v>39924</v>
       </c>
       <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
         <v>29</v>
       </c>
-      <c r="E49" t="s">
-        <v>30</v>
-      </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -5323,7 +5322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5334,22 +5333,22 @@
         <v>39927</v>
       </c>
       <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
         <v>29</v>
       </c>
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -5418,7 +5417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5429,22 +5428,22 @@
         <v>39929</v>
       </c>
       <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
         <v>29</v>
       </c>
-      <c r="E51" t="s">
-        <v>30</v>
-      </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -5513,7 +5512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5524,19 +5523,19 @@
         <v>39938</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
         <v>72</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>73</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -5605,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5616,19 +5615,19 @@
         <v>39940</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -5697,7 +5696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5708,22 +5707,22 @@
         <v>39942</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -5792,7 +5791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5803,22 +5802,22 @@
         <v>39944</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H55">
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -5887,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5898,19 +5897,19 @@
         <v>39953</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -5979,7 +5978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5990,19 +5989,19 @@
         <v>39955</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6071,7 +6070,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6082,22 +6081,22 @@
         <v>39957</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -6166,7 +6165,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6177,22 +6176,22 @@
         <v>39959</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H59">
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -6261,7 +6260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6272,19 +6271,19 @@
         <v>39961</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -6353,7 +6352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6364,22 +6363,22 @@
         <v>39963</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61" t="s">
         <v>75</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
-      </c>
-      <c r="I61" t="s">
-        <v>76</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -6448,7 +6447,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6459,19 +6458,19 @@
         <v>40285</v>
       </c>
       <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
         <v>29</v>
       </c>
-      <c r="E62" t="s">
-        <v>30</v>
-      </c>
       <c r="G62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>77</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>78</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -6540,7 +6539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6551,19 +6550,19 @@
         <v>40287</v>
       </c>
       <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
         <v>29</v>
       </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -6632,7 +6631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6643,22 +6642,22 @@
         <v>40290</v>
       </c>
       <c r="D64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" t="s">
         <v>29</v>
       </c>
-      <c r="E64" t="s">
-        <v>30</v>
-      </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -6727,7 +6726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6738,22 +6737,22 @@
         <v>40293</v>
       </c>
       <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
         <v>29</v>
       </c>
-      <c r="E65" t="s">
-        <v>30</v>
-      </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -6822,7 +6821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6833,19 +6832,19 @@
         <v>40295</v>
       </c>
       <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
         <v>29</v>
       </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H66">
         <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -6914,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6925,19 +6924,19 @@
         <v>40299</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -7006,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7017,19 +7016,19 @@
         <v>40301</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -7098,7 +7097,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7109,22 +7108,22 @@
         <v>40305</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -7193,7 +7192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7204,22 +7203,22 @@
         <v>40307</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -7288,7 +7287,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7299,19 +7298,19 @@
         <v>40309</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H71">
         <v>5</v>
       </c>
       <c r="I71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -7380,7 +7379,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7391,22 +7390,22 @@
         <v>40311</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H72">
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -7475,7 +7474,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -7486,19 +7485,19 @@
         <v>40649</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s">
         <v>83</v>
       </c>
-      <c r="G73" t="s">
-        <v>84</v>
-      </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -7567,7 +7566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -7578,19 +7577,19 @@
         <v>40651</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s">
         <v>83</v>
       </c>
-      <c r="G74" t="s">
-        <v>84</v>
-      </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -7659,7 +7658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7670,22 +7669,22 @@
         <v>40654</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
         <v>83</v>
       </c>
-      <c r="F75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" t="s">
-        <v>84</v>
-      </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -7754,7 +7753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -7765,22 +7764,22 @@
         <v>40657</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
         <v>83</v>
       </c>
-      <c r="F76" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" t="s">
-        <v>84</v>
-      </c>
       <c r="H76">
         <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -7849,7 +7848,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -7860,19 +7859,19 @@
         <v>40660</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s">
         <v>83</v>
       </c>
-      <c r="G77" t="s">
-        <v>84</v>
-      </c>
       <c r="H77">
         <v>5</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -7941,7 +7940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -7952,19 +7951,19 @@
         <v>40664</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -8033,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8044,19 +8043,19 @@
         <v>40666</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -8125,7 +8124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8136,22 +8135,22 @@
         <v>40670</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -8220,7 +8219,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8231,22 +8230,22 @@
         <v>40672</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H81">
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -8315,7 +8314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8326,19 +8325,19 @@
         <v>40674</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H82">
         <v>5</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -8407,7 +8406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8418,22 +8417,22 @@
         <v>40678</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -8502,7 +8501,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8513,22 +8512,22 @@
         <v>40681</v>
       </c>
       <c r="D84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -8597,7 +8596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8608,19 +8607,19 @@
         <v>40685</v>
       </c>
       <c r="D85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -8689,7 +8688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8700,19 +8699,19 @@
         <v>40687</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H86">
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -8781,7 +8780,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8792,22 +8791,22 @@
         <v>40689</v>
       </c>
       <c r="D87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H87">
         <v>5</v>
       </c>
       <c r="I87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -8876,7 +8875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8887,19 +8886,19 @@
         <v>40694</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -8968,7 +8967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8979,19 +8978,19 @@
         <v>40696</v>
       </c>
       <c r="D89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -9060,7 +9059,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9071,22 +9070,22 @@
         <v>40699</v>
       </c>
       <c r="D90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -9155,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9166,22 +9165,22 @@
         <v>40701</v>
       </c>
       <c r="D91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -9250,7 +9249,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9261,22 +9260,22 @@
         <v>40703</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H92">
         <v>5</v>
       </c>
       <c r="I92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -9345,7 +9344,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9356,19 +9355,19 @@
         <v>40706</v>
       </c>
       <c r="D93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H93">
         <v>6</v>
       </c>
       <c r="I93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -9437,7 +9436,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9448,19 +9447,19 @@
         <v>41027</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G94" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
         <v>87</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" t="s">
-        <v>88</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -9529,7 +9528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9540,19 +9539,19 @@
         <v>41029</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -9621,7 +9620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9632,22 +9631,22 @@
         <v>41032</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -9716,7 +9715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9727,22 +9726,22 @@
         <v>41035</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H97">
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -9811,7 +9810,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9822,19 +9821,19 @@
         <v>41038</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H98">
         <v>5</v>
       </c>
       <c r="I98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -9903,7 +9902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9914,19 +9913,19 @@
         <v>41042</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -9995,7 +9994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10006,19 +10005,19 @@
         <v>41044</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -10087,7 +10086,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10098,22 +10097,22 @@
         <v>41046</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
         <v>89</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-      <c r="I101" t="s">
-        <v>90</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -10182,7 +10181,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10193,22 +10192,22 @@
         <v>41049</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H102">
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -10274,7 +10273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10285,19 +10284,19 @@
         <v>41051</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H103">
         <v>5</v>
       </c>
       <c r="I103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -10366,7 +10365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10377,22 +10376,22 @@
         <v>41053</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H104">
         <v>6</v>
       </c>
       <c r="I104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -10461,7 +10460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10472,19 +10471,19 @@
         <v>41057</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -10553,7 +10552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10564,19 +10563,19 @@
         <v>41059</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -10645,7 +10644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10656,22 +10655,22 @@
         <v>41061</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -10740,7 +10739,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10751,22 +10750,22 @@
         <v>41063</v>
       </c>
       <c r="D108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H108">
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -10835,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10846,19 +10845,19 @@
         <v>41065</v>
       </c>
       <c r="D109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s">
+        <v>62</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109" t="s">
         <v>63</v>
-      </c>
-      <c r="H109">
-        <v>5</v>
-      </c>
-      <c r="I109" t="s">
-        <v>64</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -10927,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10938,22 +10937,22 @@
         <v>41067</v>
       </c>
       <c r="D110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H110">
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -11022,7 +11021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11033,19 +11032,19 @@
         <v>41069</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H111">
         <v>7</v>
       </c>
       <c r="I111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -11114,7 +11113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11125,22 +11124,22 @@
         <v>41072</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -11209,7 +11208,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11220,22 +11219,22 @@
         <v>41074</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -11304,7 +11303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11315,19 +11314,19 @@
         <v>41077</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -11396,7 +11395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11407,19 +11406,19 @@
         <v>41079</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H115">
         <v>4</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -11488,7 +11487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11499,19 +11498,19 @@
         <v>41081</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H116">
         <v>5</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -11580,7 +11579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11591,19 +11590,19 @@
         <v>41385</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -11672,7 +11671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11683,19 +11682,19 @@
         <v>41387</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -11764,7 +11763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11775,22 +11774,22 @@
         <v>41389</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -11859,7 +11858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11870,22 +11869,22 @@
         <v>41392</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H120">
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -11954,7 +11953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11965,19 +11964,19 @@
         <v>41400</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -12046,7 +12045,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -12057,19 +12056,19 @@
         <v>41402</v>
       </c>
       <c r="D122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -12138,7 +12137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12149,22 +12148,22 @@
         <v>41404</v>
       </c>
       <c r="D123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -12233,7 +12232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12244,22 +12243,22 @@
         <v>41407</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H124">
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -12328,7 +12327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12339,19 +12338,19 @@
         <v>41409</v>
       </c>
       <c r="D125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H125">
         <v>5</v>
       </c>
       <c r="I125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -12420,7 +12419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12431,19 +12430,19 @@
         <v>41416</v>
       </c>
       <c r="D126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G126" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -12512,7 +12511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12523,19 +12522,19 @@
         <v>41418</v>
       </c>
       <c r="D127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12604,7 +12603,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12615,22 +12614,22 @@
         <v>41420</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H128">
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -12699,7 +12698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12710,22 +12709,22 @@
         <v>41422</v>
       </c>
       <c r="D129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H129">
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -12794,7 +12793,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12805,19 +12804,19 @@
         <v>41424</v>
       </c>
       <c r="D130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E130" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H130">
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -12886,7 +12885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12897,22 +12896,22 @@
         <v>41426</v>
       </c>
       <c r="D131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H131">
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -12981,7 +12980,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12992,19 +12991,19 @@
         <v>41428</v>
       </c>
       <c r="D132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H132">
         <v>7</v>
       </c>
       <c r="I132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -13073,7 +13072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -13084,19 +13083,19 @@
         <v>41431</v>
       </c>
       <c r="D133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G133" t="s">
         <v>55</v>
       </c>
-      <c r="E133" t="s">
-        <v>83</v>
-      </c>
-      <c r="G133" t="s">
-        <v>56</v>
-      </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -13165,7 +13164,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -13176,19 +13175,19 @@
         <v>41434</v>
       </c>
       <c r="D134" t="s">
+        <v>54</v>
+      </c>
+      <c r="E134" t="s">
+        <v>82</v>
+      </c>
+      <c r="G134" t="s">
         <v>55</v>
       </c>
-      <c r="E134" t="s">
-        <v>83</v>
-      </c>
-      <c r="G134" t="s">
-        <v>56</v>
-      </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -13257,7 +13256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -13268,22 +13267,22 @@
         <v>41436</v>
       </c>
       <c r="D135" t="s">
+        <v>54</v>
+      </c>
+      <c r="E135" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s">
         <v>55</v>
       </c>
-      <c r="E135" t="s">
-        <v>83</v>
-      </c>
-      <c r="F135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135" t="s">
-        <v>56</v>
-      </c>
       <c r="H135">
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J135">
         <v>1</v>
@@ -13349,7 +13348,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -13360,22 +13359,22 @@
         <v>41438</v>
       </c>
       <c r="D136" t="s">
+        <v>54</v>
+      </c>
+      <c r="E136" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" t="s">
         <v>55</v>
       </c>
-      <c r="E136" t="s">
-        <v>83</v>
-      </c>
-      <c r="F136" t="s">
-        <v>34</v>
-      </c>
-      <c r="G136" t="s">
-        <v>56</v>
-      </c>
       <c r="H136">
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -13444,7 +13443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13455,22 +13454,22 @@
         <v>41441</v>
       </c>
       <c r="D137" t="s">
+        <v>54</v>
+      </c>
+      <c r="E137" t="s">
+        <v>82</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
         <v>55</v>
       </c>
-      <c r="E137" t="s">
-        <v>83</v>
-      </c>
-      <c r="F137" t="s">
-        <v>34</v>
-      </c>
-      <c r="G137" t="s">
-        <v>56</v>
-      </c>
       <c r="H137">
         <v>5</v>
       </c>
       <c r="I137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -13539,7 +13538,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13550,19 +13549,19 @@
         <v>41443</v>
       </c>
       <c r="D138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138" t="s">
         <v>55</v>
       </c>
-      <c r="E138" t="s">
-        <v>83</v>
-      </c>
-      <c r="G138" t="s">
-        <v>56</v>
-      </c>
       <c r="H138">
         <v>6</v>
       </c>
       <c r="I138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13631,7 +13630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13642,19 +13641,19 @@
         <v>41445</v>
       </c>
       <c r="D139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" t="s">
+        <v>82</v>
+      </c>
+      <c r="G139" t="s">
         <v>55</v>
-      </c>
-      <c r="E139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G139" t="s">
-        <v>56</v>
       </c>
       <c r="H139">
         <v>7</v>
       </c>
       <c r="I139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13723,7 +13722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13734,19 +13733,19 @@
         <v>41749</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J140">
         <v>1</v>
@@ -13815,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13826,19 +13825,19 @@
         <v>41752</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13907,7 +13906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13918,22 +13917,22 @@
         <v>41755</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H142">
         <v>3</v>
       </c>
       <c r="I142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -14002,7 +14001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -14013,22 +14012,22 @@
         <v>41757</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H143">
         <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -14097,7 +14096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -14108,19 +14107,19 @@
         <v>41765</v>
       </c>
       <c r="D144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J144">
         <v>1</v>
@@ -14186,7 +14185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -14197,19 +14196,19 @@
         <v>41767</v>
       </c>
       <c r="D145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J145">
         <v>1</v>
@@ -14278,7 +14277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -14289,22 +14288,22 @@
         <v>41769</v>
       </c>
       <c r="D146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E146" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J146">
         <v>1</v>
@@ -14373,7 +14372,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -14384,22 +14383,22 @@
         <v>41771</v>
       </c>
       <c r="D147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H147">
         <v>4</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J147">
         <v>1</v>
@@ -14468,7 +14467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -14479,19 +14478,19 @@
         <v>41773</v>
       </c>
       <c r="D148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G148" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H148">
         <v>5</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>1</v>
@@ -14560,7 +14559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -14571,22 +14570,22 @@
         <v>41777</v>
       </c>
       <c r="D149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -14655,7 +14654,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14666,22 +14665,22 @@
         <v>41779</v>
       </c>
       <c r="D150" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H150">
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -14750,7 +14749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14761,19 +14760,19 @@
         <v>41783</v>
       </c>
       <c r="D151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G151" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H151">
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J151">
         <v>1</v>
@@ -14842,7 +14841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14853,19 +14852,19 @@
         <v>41785</v>
       </c>
       <c r="D152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H152">
         <v>4</v>
       </c>
       <c r="I152" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J152">
         <v>1</v>
@@ -14934,7 +14933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14945,22 +14944,22 @@
         <v>41787</v>
       </c>
       <c r="D153" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" t="s">
+        <v>82</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+      <c r="G153" t="s">
+        <v>88</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
+      </c>
+      <c r="I153" t="s">
         <v>53</v>
-      </c>
-      <c r="E153" t="s">
-        <v>83</v>
-      </c>
-      <c r="F153" t="s">
-        <v>34</v>
-      </c>
-      <c r="G153" t="s">
-        <v>89</v>
-      </c>
-      <c r="H153">
-        <v>5</v>
-      </c>
-      <c r="I153" t="s">
-        <v>54</v>
       </c>
       <c r="J153">
         <v>1</v>
@@ -15029,7 +15028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -15040,19 +15039,19 @@
         <v>41789</v>
       </c>
       <c r="D154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G154" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H154">
         <v>6</v>
       </c>
       <c r="I154" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -15118,7 +15117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -15129,22 +15128,22 @@
         <v>41795</v>
       </c>
       <c r="D155" t="s">
+        <v>54</v>
+      </c>
+      <c r="E155" t="s">
+        <v>82</v>
+      </c>
+      <c r="F155" t="s">
+        <v>33</v>
+      </c>
+      <c r="G155" t="s">
         <v>55</v>
       </c>
-      <c r="E155" t="s">
-        <v>83</v>
-      </c>
-      <c r="F155" t="s">
-        <v>34</v>
-      </c>
-      <c r="G155" t="s">
-        <v>56</v>
-      </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -15213,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -15224,22 +15223,22 @@
         <v>41798</v>
       </c>
       <c r="D156" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" t="s">
+        <v>82</v>
+      </c>
+      <c r="F156" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156" t="s">
         <v>55</v>
       </c>
-      <c r="E156" t="s">
-        <v>83</v>
-      </c>
-      <c r="F156" t="s">
-        <v>34</v>
-      </c>
-      <c r="G156" t="s">
-        <v>56</v>
-      </c>
       <c r="H156">
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -15308,7 +15307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -15319,19 +15318,19 @@
         <v>41800</v>
       </c>
       <c r="D157" t="s">
+        <v>54</v>
+      </c>
+      <c r="E157" t="s">
+        <v>82</v>
+      </c>
+      <c r="G157" t="s">
         <v>55</v>
       </c>
-      <c r="E157" t="s">
-        <v>83</v>
-      </c>
-      <c r="G157" t="s">
-        <v>56</v>
-      </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J157">
         <v>1</v>
@@ -15400,7 +15399,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -15411,19 +15410,19 @@
         <v>41802</v>
       </c>
       <c r="D158" t="s">
+        <v>54</v>
+      </c>
+      <c r="E158" t="s">
+        <v>82</v>
+      </c>
+      <c r="G158" t="s">
         <v>55</v>
       </c>
-      <c r="E158" t="s">
-        <v>83</v>
-      </c>
-      <c r="G158" t="s">
-        <v>56</v>
-      </c>
       <c r="H158">
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J158">
         <v>1</v>
@@ -15492,7 +15491,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -15503,22 +15502,22 @@
         <v>41805</v>
       </c>
       <c r="D159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" t="s">
+        <v>82</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G159" t="s">
         <v>55</v>
       </c>
-      <c r="E159" t="s">
-        <v>83</v>
-      </c>
-      <c r="F159" t="s">
-        <v>34</v>
-      </c>
-      <c r="G159" t="s">
-        <v>56</v>
-      </c>
       <c r="H159">
         <v>5</v>
       </c>
       <c r="I159" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J159">
         <v>1</v>
@@ -15587,7 +15586,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -15598,19 +15597,19 @@
         <v>42113</v>
       </c>
       <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
         <v>29</v>
       </c>
-      <c r="E160" t="s">
-        <v>30</v>
-      </c>
       <c r="G160" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J160">
         <v>1</v>
@@ -15679,7 +15678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -15690,19 +15689,19 @@
         <v>42115</v>
       </c>
       <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" t="s">
         <v>29</v>
       </c>
-      <c r="E161" t="s">
-        <v>30</v>
-      </c>
       <c r="G161" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
       <c r="I161" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -15771,7 +15770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -15782,22 +15781,22 @@
         <v>42117</v>
       </c>
       <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" t="s">
         <v>29</v>
       </c>
-      <c r="E162" t="s">
-        <v>30</v>
-      </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H162">
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -15866,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -15877,22 +15876,22 @@
         <v>42120</v>
       </c>
       <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
         <v>29</v>
       </c>
-      <c r="E163" t="s">
-        <v>30</v>
-      </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H163">
         <v>4</v>
       </c>
       <c r="I163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J163">
         <v>1</v>
@@ -15961,7 +15960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -15972,19 +15971,19 @@
         <v>42128</v>
       </c>
       <c r="D164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -16053,7 +16052,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="165" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -16064,19 +16063,19 @@
         <v>42130</v>
       </c>
       <c r="D165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>1</v>
@@ -16145,7 +16144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -16156,22 +16155,22 @@
         <v>42132</v>
       </c>
       <c r="D166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H166">
         <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>1</v>
@@ -16240,7 +16239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -16251,22 +16250,22 @@
         <v>42134</v>
       </c>
       <c r="D167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H167">
         <v>4</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J167">
         <v>1</v>
@@ -16335,7 +16334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -16346,19 +16345,19 @@
         <v>42136</v>
       </c>
       <c r="D168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H168">
         <v>5</v>
       </c>
       <c r="I168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J168">
         <v>1</v>
@@ -16427,7 +16426,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -16438,22 +16437,22 @@
         <v>42138</v>
       </c>
       <c r="D169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H169">
         <v>6</v>
       </c>
       <c r="I169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J169">
         <v>1</v>
@@ -16522,7 +16521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -16533,22 +16532,22 @@
         <v>42144</v>
       </c>
       <c r="D170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H170">
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J170">
         <v>1</v>
@@ -16617,7 +16616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -16628,22 +16627,22 @@
         <v>42146</v>
       </c>
       <c r="D171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J171">
         <v>1</v>
@@ -16712,7 +16711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -16723,19 +16722,19 @@
         <v>42148</v>
       </c>
       <c r="D172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J172">
         <v>1</v>
@@ -16804,7 +16803,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -16815,19 +16814,19 @@
         <v>42150</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H173">
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J173">
         <v>1</v>
@@ -16896,7 +16895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -16907,22 +16906,22 @@
         <v>42159</v>
       </c>
       <c r="D174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
+        <v>102</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" t="s">
         <v>103</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174" t="s">
-        <v>104</v>
       </c>
       <c r="J174">
         <v>1</v>
@@ -16991,7 +16990,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="175" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -17002,22 +17001,22 @@
         <v>42162</v>
       </c>
       <c r="D175" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J175">
         <v>1</v>
@@ -17086,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -17097,19 +17096,19 @@
         <v>42164</v>
       </c>
       <c r="D176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H176">
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J176">
         <v>1</v>
@@ -17178,7 +17177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -17189,19 +17188,19 @@
         <v>42166</v>
       </c>
       <c r="D177" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H177">
         <v>4</v>
       </c>
       <c r="I177" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -17270,7 +17269,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -17281,22 +17280,22 @@
         <v>42169</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H178">
         <v>5</v>
       </c>
       <c r="I178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J178">
         <v>1</v>
@@ -17365,7 +17364,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -17376,19 +17375,19 @@
         <v>42171</v>
       </c>
       <c r="D179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
+        <v>102</v>
+      </c>
+      <c r="H179">
+        <v>6</v>
+      </c>
+      <c r="I179" t="s">
         <v>103</v>
-      </c>
-      <c r="H179">
-        <v>6</v>
-      </c>
-      <c r="I179" t="s">
-        <v>104</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -17457,7 +17456,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -17468,19 +17467,19 @@
         <v>42477</v>
       </c>
       <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" t="s">
         <v>29</v>
       </c>
-      <c r="E180" t="s">
-        <v>30</v>
-      </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -17549,7 +17548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -17560,19 +17559,19 @@
         <v>42480</v>
       </c>
       <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" t="s">
         <v>29</v>
       </c>
-      <c r="E181" t="s">
-        <v>30</v>
-      </c>
       <c r="G181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -17641,7 +17640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -17652,22 +17651,22 @@
         <v>42482</v>
       </c>
       <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" t="s">
         <v>29</v>
       </c>
-      <c r="E182" t="s">
-        <v>30</v>
-      </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -17736,7 +17735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -17747,22 +17746,22 @@
         <v>42484</v>
       </c>
       <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" t="s">
         <v>29</v>
       </c>
-      <c r="E183" t="s">
-        <v>30</v>
-      </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>4</v>
       </c>
       <c r="I183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -17831,7 +17830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -17842,19 +17841,19 @@
         <v>42492</v>
       </c>
       <c r="D184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -17923,7 +17922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -17934,19 +17933,19 @@
         <v>42494</v>
       </c>
       <c r="D185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -18015,7 +18014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -18026,22 +18025,22 @@
         <v>42496</v>
       </c>
       <c r="D186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H186">
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -18110,7 +18109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -18121,22 +18120,22 @@
         <v>42498</v>
       </c>
       <c r="D187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F187" t="s">
+        <v>33</v>
+      </c>
+      <c r="G187" t="s">
+        <v>71</v>
+      </c>
+      <c r="H187">
+        <v>4</v>
+      </c>
+      <c r="I187" t="s">
         <v>34</v>
-      </c>
-      <c r="G187" t="s">
-        <v>72</v>
-      </c>
-      <c r="H187">
-        <v>4</v>
-      </c>
-      <c r="I187" t="s">
-        <v>35</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -18205,7 +18204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -18216,19 +18215,19 @@
         <v>42507</v>
       </c>
       <c r="D188" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
+        <v>104</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" t="s">
         <v>105</v>
-      </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="I188" t="s">
-        <v>106</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -18297,7 +18296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -18308,19 +18307,19 @@
         <v>42509</v>
       </c>
       <c r="D189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H189">
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -18389,7 +18388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -18400,22 +18399,22 @@
         <v>42511</v>
       </c>
       <c r="D190" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H190">
         <v>3</v>
       </c>
       <c r="I190" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -18484,7 +18483,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -18495,22 +18494,22 @@
         <v>42513</v>
       </c>
       <c r="D191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H191">
         <v>4</v>
       </c>
       <c r="I191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -18579,7 +18578,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -18590,19 +18589,19 @@
         <v>42515</v>
       </c>
       <c r="D192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H192">
         <v>5</v>
       </c>
       <c r="I192" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J192">
         <v>1</v>
@@ -18671,7 +18670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -18682,22 +18681,22 @@
         <v>42517</v>
       </c>
       <c r="D193" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H193">
         <v>6</v>
       </c>
       <c r="I193" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -18766,7 +18765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -18777,22 +18776,22 @@
         <v>42523</v>
       </c>
       <c r="D194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H194">
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -18861,7 +18860,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="195" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -18872,22 +18871,22 @@
         <v>42526</v>
       </c>
       <c r="D195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -18956,7 +18955,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="196" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -18967,19 +18966,19 @@
         <v>42529</v>
       </c>
       <c r="D196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H196">
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -19048,7 +19047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -19059,19 +19058,19 @@
         <v>42531</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H197">
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J197">
         <v>1</v>
@@ -19140,7 +19139,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -19151,22 +19150,22 @@
         <v>42534</v>
       </c>
       <c r="D198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H198">
         <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -19235,7 +19234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -19246,19 +19245,19 @@
         <v>42537</v>
       </c>
       <c r="D199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H199">
         <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J199">
         <v>1</v>
@@ -19327,7 +19326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -19338,22 +19337,22 @@
         <v>42540</v>
       </c>
       <c r="D200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H200">
         <v>7</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -19422,7 +19421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -19433,19 +19432,19 @@
         <v>42840</v>
       </c>
       <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" t="s">
         <v>29</v>
       </c>
-      <c r="E201" t="s">
-        <v>30</v>
-      </c>
       <c r="G201" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -19514,7 +19513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -19525,19 +19524,19 @@
         <v>42842</v>
       </c>
       <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" t="s">
         <v>29</v>
       </c>
-      <c r="E202" t="s">
-        <v>30</v>
-      </c>
       <c r="G202" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H202">
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -19606,7 +19605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -19617,22 +19616,22 @@
         <v>42845</v>
       </c>
       <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" t="s">
         <v>29</v>
       </c>
-      <c r="E203" t="s">
-        <v>30</v>
-      </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H203">
         <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J203">
         <v>1</v>
@@ -19701,7 +19700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -19712,22 +19711,22 @@
         <v>42848</v>
       </c>
       <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" t="s">
         <v>29</v>
       </c>
-      <c r="E204" t="s">
-        <v>30</v>
-      </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H204">
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J204">
         <v>1</v>
@@ -19796,7 +19795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -19807,19 +19806,19 @@
         <v>42856</v>
       </c>
       <c r="D205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -19888,7 +19887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -19899,19 +19898,19 @@
         <v>42858</v>
       </c>
       <c r="D206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J206">
         <v>1</v>
@@ -19980,7 +19979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -19991,22 +19990,22 @@
         <v>42860</v>
       </c>
       <c r="D207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H207">
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J207">
         <v>1</v>
@@ -20075,7 +20074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -20086,22 +20085,22 @@
         <v>42862</v>
       </c>
       <c r="D208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H208">
         <v>4</v>
       </c>
       <c r="I208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J208">
         <v>1</v>
@@ -20170,7 +20169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -20181,22 +20180,22 @@
         <v>42872</v>
       </c>
       <c r="D209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J209">
         <v>1</v>
@@ -20265,7 +20264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -20276,22 +20275,22 @@
         <v>42874</v>
       </c>
       <c r="D210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J210">
         <v>1</v>
@@ -20360,7 +20359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -20371,19 +20370,19 @@
         <v>42876</v>
       </c>
       <c r="D211" t="s">
+        <v>52</v>
+      </c>
+      <c r="E211" t="s">
+        <v>29</v>
+      </c>
+      <c r="G211" t="s">
+        <v>62</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211" t="s">
         <v>53</v>
-      </c>
-      <c r="E211" t="s">
-        <v>30</v>
-      </c>
-      <c r="G211" t="s">
-        <v>63</v>
-      </c>
-      <c r="H211">
-        <v>3</v>
-      </c>
-      <c r="I211" t="s">
-        <v>54</v>
       </c>
       <c r="J211">
         <v>1</v>
@@ -20452,7 +20451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -20463,19 +20462,19 @@
         <v>42878</v>
       </c>
       <c r="D212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H212">
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J212">
         <v>1</v>
@@ -20544,7 +20543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -20555,22 +20554,22 @@
         <v>42880</v>
       </c>
       <c r="D213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H213">
         <v>5</v>
       </c>
       <c r="I213" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J213">
         <v>1</v>
@@ -20639,7 +20638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -20650,22 +20649,22 @@
         <v>42887</v>
       </c>
       <c r="D214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J214">
         <v>1</v>
@@ -20734,7 +20733,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="215" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -20745,22 +20744,22 @@
         <v>42890</v>
       </c>
       <c r="D215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H215">
         <v>2</v>
       </c>
       <c r="I215" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J215">
         <v>1</v>
@@ -20829,7 +20828,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="216" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -20840,19 +20839,19 @@
         <v>42893</v>
       </c>
       <c r="D216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J216">
         <v>1</v>
@@ -20921,7 +20920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -20932,19 +20931,19 @@
         <v>42895</v>
       </c>
       <c r="D217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H217">
         <v>4</v>
       </c>
       <c r="I217" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J217">
         <v>1</v>
@@ -21013,7 +21012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -21024,22 +21023,22 @@
         <v>42898</v>
       </c>
       <c r="D218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H218">
         <v>5</v>
       </c>
       <c r="I218" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J218">
         <v>1</v>
@@ -21108,7 +21107,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="219" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -21119,19 +21118,19 @@
         <v>43205</v>
       </c>
       <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" t="s">
         <v>29</v>
       </c>
-      <c r="E219" t="s">
-        <v>30</v>
-      </c>
       <c r="G219" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J219">
         <v>1</v>
@@ -21200,7 +21199,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="220" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -21211,19 +21210,19 @@
         <v>43208</v>
       </c>
       <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" t="s">
         <v>29</v>
       </c>
-      <c r="E220" t="s">
-        <v>30</v>
-      </c>
       <c r="G220" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J220">
         <v>1</v>
@@ -21292,7 +21291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -21303,22 +21302,22 @@
         <v>43210</v>
       </c>
       <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" t="s">
         <v>29</v>
       </c>
-      <c r="E221" t="s">
-        <v>30</v>
-      </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H221">
         <v>3</v>
       </c>
       <c r="I221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J221">
         <v>1</v>
@@ -21387,7 +21386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="222" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -21398,22 +21397,22 @@
         <v>43212</v>
       </c>
       <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" t="s">
         <v>29</v>
       </c>
-      <c r="E222" t="s">
-        <v>30</v>
-      </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H222">
         <v>4</v>
       </c>
       <c r="I222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J222">
         <v>1</v>
@@ -21482,7 +21481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -21493,19 +21492,19 @@
         <v>43215</v>
       </c>
       <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" t="s">
         <v>29</v>
       </c>
-      <c r="E223" t="s">
-        <v>30</v>
-      </c>
       <c r="G223" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H223">
         <v>5</v>
       </c>
       <c r="I223" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J223">
         <v>1</v>
@@ -21574,7 +21573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -21585,22 +21584,22 @@
         <v>43217</v>
       </c>
       <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" t="s">
         <v>29</v>
       </c>
-      <c r="E224" t="s">
-        <v>30</v>
-      </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H224">
         <v>6</v>
       </c>
       <c r="I224" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J224">
         <v>1</v>
@@ -21669,7 +21668,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="225" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -21680,19 +21679,19 @@
         <v>43219</v>
       </c>
       <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" t="s">
         <v>29</v>
       </c>
-      <c r="E225" t="s">
-        <v>30</v>
-      </c>
       <c r="G225" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H225">
         <v>7</v>
       </c>
       <c r="I225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>1</v>
@@ -21761,7 +21760,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="226" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -21772,22 +21771,22 @@
         <v>43221</v>
       </c>
       <c r="D226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F226" t="s">
+        <v>33</v>
+      </c>
+      <c r="G226" t="s">
+        <v>104</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226" t="s">
         <v>34</v>
-      </c>
-      <c r="G226" t="s">
-        <v>105</v>
-      </c>
-      <c r="H226">
-        <v>1</v>
-      </c>
-      <c r="I226" t="s">
-        <v>35</v>
       </c>
       <c r="J226">
         <v>1</v>
@@ -21856,7 +21855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -21867,22 +21866,22 @@
         <v>43223</v>
       </c>
       <c r="D227" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H227">
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J227">
         <v>1</v>
@@ -21951,7 +21950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -21962,19 +21961,19 @@
         <v>43225</v>
       </c>
       <c r="D228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H228">
         <v>3</v>
       </c>
       <c r="I228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J228">
         <v>1</v>
@@ -22043,7 +22042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -22054,19 +22053,19 @@
         <v>43227</v>
       </c>
       <c r="D229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H229">
         <v>4</v>
       </c>
       <c r="I229" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J229">
         <v>1</v>
@@ -22135,7 +22134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -22146,22 +22145,22 @@
         <v>43233</v>
       </c>
       <c r="D230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -22230,7 +22229,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="231" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -22241,22 +22240,22 @@
         <v>43235</v>
       </c>
       <c r="D231" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H231">
         <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J231">
         <v>1</v>
@@ -22325,7 +22324,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="232" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -22336,19 +22335,19 @@
         <v>43239</v>
       </c>
       <c r="D232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H232">
         <v>3</v>
       </c>
       <c r="I232" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J232">
         <v>1</v>
@@ -22417,7 +22416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -22428,19 +22427,19 @@
         <v>43241</v>
       </c>
       <c r="D233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H233">
         <v>4</v>
       </c>
       <c r="I233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J233">
         <v>1</v>
@@ -22509,7 +22508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -22520,22 +22519,22 @@
         <v>43243</v>
       </c>
       <c r="D234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H234">
         <v>5</v>
       </c>
       <c r="I234" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J234">
         <v>1</v>
@@ -22604,7 +22603,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="235" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -22615,19 +22614,19 @@
         <v>43245</v>
       </c>
       <c r="D235" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H235">
         <v>6</v>
       </c>
       <c r="I235" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J235">
         <v>1</v>
@@ -22696,7 +22695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -22707,22 +22706,22 @@
         <v>43247</v>
       </c>
       <c r="D236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H236">
         <v>7</v>
       </c>
       <c r="I236" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -22791,7 +22790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -22802,22 +22801,22 @@
         <v>43251</v>
       </c>
       <c r="D237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J237">
         <v>1</v>
@@ -22886,7 +22885,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="238" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -22897,22 +22896,22 @@
         <v>43254</v>
       </c>
       <c r="D238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E238" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J238">
         <v>1</v>
@@ -22981,7 +22980,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="239" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -22992,19 +22991,19 @@
         <v>43257</v>
       </c>
       <c r="D239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
+        <v>102</v>
+      </c>
+      <c r="H239">
+        <v>3</v>
+      </c>
+      <c r="I239" t="s">
         <v>103</v>
-      </c>
-      <c r="H239">
-        <v>3</v>
-      </c>
-      <c r="I239" t="s">
-        <v>104</v>
       </c>
       <c r="J239">
         <v>1</v>
@@ -23073,7 +23072,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="240" spans="1:31" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -23084,19 +23083,19 @@
         <v>43259</v>
       </c>
       <c r="D240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E240" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G240" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H240">
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J240">
         <v>1</v>
